--- a/Main_assignment/MovieData.xlsx
+++ b/Main_assignment/MovieData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,10 +16,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -45,8 +53,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,44 +421,58 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="12.6640625" customWidth="1" min="1" max="1"/>
-    <col width="13.33203125" customWidth="1" min="4" max="4"/>
+    <col width="16.109375" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14.33203125" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="12.33203125" customWidth="1" min="5" max="5"/>
+    <col width="18.21875" customWidth="1" min="6" max="6"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Sholay</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>2hours</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amit</t>
-        </is>
-      </c>
-      <c r="E1" t="n">
-        <v>50</v>
-      </c>
-      <c r="F1" t="n">
-        <v>6</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Genre</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cast</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Ratings</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>User ratings</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -543,6 +566,46 @@
       </c>
       <c r="F4" t="n">
         <v>7</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Hera</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3hours</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>paresh rawal</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>31</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Main_assignment/MovieData.xlsx
+++ b/Main_assignment/MovieData.xlsx
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
         <v>7</v>

--- a/Main_assignment/MovieData.xlsx
+++ b/Main_assignment/MovieData.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -608,6 +608,38 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>gadar</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ACtion</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>sunny deol</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
